--- a/to_do_list.xlsx
+++ b/to_do_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,30 @@
   </si>
   <si>
     <t>何老师十一期间的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静静奶奶家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我奶奶家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我姥姥家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.21~1.24前走访几家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000rmb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年前/后拜访</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,17 +321,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -316,7 +334,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -613,23 +640,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,34 +673,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -681,14 +708,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -696,89 +723,89 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7"/>
       <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7"/>
       <c r="B10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7"/>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1">
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -789,25 +816,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1">
+    <row r="22" spans="1:4">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1">
+    <row r="23" spans="1:4">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1">
+    <row r="24" spans="1:4">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1">
+    <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -815,70 +842,97 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1">
+    <row r="26" spans="1:4">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="1" customFormat="1">
+    <row r="27" spans="1:4">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1">
+    <row r="28" spans="1:4">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1">
+    <row r="29" spans="1:4">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1">
+    <row r="30" spans="1:4">
       <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1">
+    <row r="31" spans="1:4">
       <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1">
+    <row r="32" spans="1:4">
       <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="1" customFormat="1">
+    <row r="33" spans="1:4">
       <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="1" customFormat="1">
+    <row r="34" spans="1:4" ht="24.75" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" s="1" customFormat="1">
+      <c r="D34" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7"/>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A33"/>
     <mergeCell ref="A34:A35"/>

--- a/to_do_list.xlsx
+++ b/to_do_list.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="13620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="事件单" sheetId="1" r:id="rId1"/>
+    <sheet name="行李单" sheetId="2" r:id="rId2"/>
+    <sheet name="代购单" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>事项</t>
   </si>
@@ -81,9 +84,6 @@
     <t>跟妆</t>
   </si>
   <si>
-    <t>女服装、首饰</t>
-  </si>
-  <si>
     <t>男服装</t>
   </si>
   <si>
@@ -102,9 +102,6 @@
     <t>伴郎</t>
   </si>
   <si>
-    <t>何老师十一期间的时间</t>
-  </si>
-  <si>
     <t>小朋友</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>选择摄影楼</t>
   </si>
   <si>
-    <t>1.21~1.24前走访几家</t>
-  </si>
-  <si>
     <t>预算</t>
   </si>
   <si>
@@ -184,15 +178,40 @@
   </si>
   <si>
     <t>续租房子</t>
+  </si>
+  <si>
+    <t>申请信用卡外币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在开始调查1.21~1.24定下来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静静定，是否和婚礼酒店一样紧张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女服装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -200,14 +219,17 @@
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -224,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -307,90 +329,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -516,7 +664,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -525,7 +673,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -534,7 +682,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -608,7 +756,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -616,7 +764,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -635,7 +783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -665,7 +813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -691,7 +839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -717,7 +865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -743,7 +891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -769,7 +917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -795,7 +943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -821,7 +969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -847,7 +995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -873,7 +1021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -886,9 +1034,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -903,7 +1057,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -911,7 +1065,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -930,7 +1084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -956,7 +1110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -982,7 +1136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,7 +1162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,7 +1188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +1214,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,7 +1240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1266,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,7 +1292,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1164,7 +1318,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,9 +1331,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1193,7 +1353,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1212,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1242,7 +1402,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1268,7 +1428,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1294,7 +1454,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1320,7 +1480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1346,7 +1506,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,7 +1532,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1398,7 +1558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1424,7 +1584,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1450,7 +1610,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1463,445 +1623,971 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.2891" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1484" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.4453" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="19" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="19" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" t="s" s="2">
+    <row r="3" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="19" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s" s="2">
+    <row r="4" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" t="s" s="2">
+    <row r="5" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="19" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" t="s" s="2">
+    <row r="6" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="19" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" t="s" s="2">
+    <row r="7" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="19" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" t="s" s="2">
+    <row r="8" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="19" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" t="s" s="2">
+    <row r="9" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="19" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="10"/>
-      <c r="C10" t="s" s="2">
+    <row r="10" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" ht="19" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" t="s" s="2">
+    <row r="11" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" t="s" s="11">
+      <c r="D11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" ht="19" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" t="s" s="7">
-        <v>20</v>
-      </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" ht="19" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C13" s="6"/>
+    <row r="13" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>59</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" ht="19" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="C14" s="6"/>
+    <row r="14" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
+        <v>60</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-    </row>
-    <row r="15" ht="19" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="C15" s="8"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+      <c r="BH14" s="12"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="12"/>
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="12"/>
+      <c r="BM14" s="12"/>
+      <c r="BN14" s="12"/>
+      <c r="BO14" s="12"/>
+      <c r="BP14" s="12"/>
+      <c r="BQ14" s="12"/>
+      <c r="BR14" s="12"/>
+      <c r="BS14" s="12"/>
+      <c r="BT14" s="12"/>
+      <c r="BU14" s="12"/>
+      <c r="BV14" s="12"/>
+      <c r="BW14" s="12"/>
+      <c r="BX14" s="12"/>
+      <c r="BY14" s="12"/>
+      <c r="BZ14" s="12"/>
+      <c r="CA14" s="12"/>
+      <c r="CB14" s="12"/>
+      <c r="CC14" s="12"/>
+      <c r="CD14" s="12"/>
+      <c r="CE14" s="12"/>
+      <c r="CF14" s="12"/>
+      <c r="CG14" s="12"/>
+      <c r="CH14" s="12"/>
+      <c r="CI14" s="12"/>
+      <c r="CJ14" s="12"/>
+      <c r="CK14" s="12"/>
+      <c r="CL14" s="12"/>
+      <c r="CM14" s="12"/>
+      <c r="CN14" s="12"/>
+      <c r="CO14" s="12"/>
+      <c r="CP14" s="12"/>
+      <c r="CQ14" s="12"/>
+      <c r="CR14" s="12"/>
+      <c r="CS14" s="12"/>
+      <c r="CT14" s="12"/>
+      <c r="CU14" s="12"/>
+      <c r="CV14" s="12"/>
+      <c r="CW14" s="12"/>
+      <c r="CX14" s="12"/>
+      <c r="CY14" s="12"/>
+      <c r="CZ14" s="12"/>
+      <c r="DA14" s="12"/>
+      <c r="DB14" s="12"/>
+      <c r="DC14" s="12"/>
+      <c r="DD14" s="12"/>
+      <c r="DE14" s="12"/>
+      <c r="DF14" s="12"/>
+      <c r="DG14" s="12"/>
+      <c r="DH14" s="12"/>
+      <c r="DI14" s="12"/>
+      <c r="DJ14" s="12"/>
+      <c r="DK14" s="12"/>
+      <c r="DL14" s="12"/>
+      <c r="DM14" s="12"/>
+      <c r="DN14" s="12"/>
+      <c r="DO14" s="12"/>
+      <c r="DP14" s="12"/>
+      <c r="DQ14" s="12"/>
+      <c r="DR14" s="12"/>
+      <c r="DS14" s="12"/>
+      <c r="DT14" s="12"/>
+      <c r="DU14" s="12"/>
+      <c r="DV14" s="12"/>
+      <c r="DW14" s="12"/>
+      <c r="DX14" s="12"/>
+      <c r="DY14" s="12"/>
+      <c r="DZ14" s="12"/>
+      <c r="EA14" s="12"/>
+      <c r="EB14" s="12"/>
+      <c r="EC14" s="12"/>
+      <c r="ED14" s="12"/>
+      <c r="EE14" s="12"/>
+      <c r="EF14" s="12"/>
+      <c r="EG14" s="12"/>
+      <c r="EH14" s="12"/>
+      <c r="EI14" s="12"/>
+      <c r="EJ14" s="12"/>
+      <c r="EK14" s="12"/>
+      <c r="EL14" s="12"/>
+      <c r="EM14" s="12"/>
+      <c r="EN14" s="12"/>
+      <c r="EO14" s="12"/>
+      <c r="EP14" s="12"/>
+      <c r="EQ14" s="12"/>
+      <c r="ER14" s="12"/>
+      <c r="ES14" s="12"/>
+      <c r="ET14" s="12"/>
+      <c r="EU14" s="12"/>
+      <c r="EV14" s="12"/>
+      <c r="EW14" s="12"/>
+      <c r="EX14" s="12"/>
+      <c r="EY14" s="12"/>
+      <c r="EZ14" s="12"/>
+      <c r="FA14" s="12"/>
+      <c r="FB14" s="12"/>
+      <c r="FC14" s="12"/>
+      <c r="FD14" s="12"/>
+      <c r="FE14" s="12"/>
+      <c r="FF14" s="12"/>
+      <c r="FG14" s="12"/>
+      <c r="FH14" s="12"/>
+      <c r="FI14" s="12"/>
+      <c r="FJ14" s="12"/>
+      <c r="FK14" s="12"/>
+      <c r="FL14" s="12"/>
+      <c r="FM14" s="12"/>
+      <c r="FN14" s="12"/>
+      <c r="FO14" s="12"/>
+      <c r="FP14" s="12"/>
+      <c r="FQ14" s="12"/>
+      <c r="FR14" s="12"/>
+      <c r="FS14" s="12"/>
+      <c r="FT14" s="12"/>
+      <c r="FU14" s="12"/>
+      <c r="FV14" s="12"/>
+      <c r="FW14" s="12"/>
+      <c r="FX14" s="12"/>
+      <c r="FY14" s="12"/>
+      <c r="FZ14" s="12"/>
+      <c r="GA14" s="12"/>
+      <c r="GB14" s="12"/>
+      <c r="GC14" s="12"/>
+      <c r="GD14" s="12"/>
+      <c r="GE14" s="12"/>
+      <c r="GF14" s="12"/>
+      <c r="GG14" s="12"/>
+      <c r="GH14" s="12"/>
+      <c r="GI14" s="12"/>
+      <c r="GJ14" s="12"/>
+      <c r="GK14" s="12"/>
+      <c r="GL14" s="12"/>
+      <c r="GM14" s="12"/>
+      <c r="GN14" s="12"/>
+      <c r="GO14" s="12"/>
+      <c r="GP14" s="12"/>
+      <c r="GQ14" s="12"/>
+      <c r="GR14" s="12"/>
+      <c r="GS14" s="12"/>
+      <c r="GT14" s="12"/>
+      <c r="GU14" s="12"/>
+      <c r="GV14" s="12"/>
+      <c r="GW14" s="12"/>
+      <c r="GX14" s="12"/>
+      <c r="GY14" s="12"/>
+      <c r="GZ14" s="12"/>
+      <c r="HA14" s="12"/>
+      <c r="HB14" s="12"/>
+      <c r="HC14" s="12"/>
+      <c r="HD14" s="12"/>
+      <c r="HE14" s="12"/>
+      <c r="HF14" s="12"/>
+      <c r="HG14" s="12"/>
+      <c r="HH14" s="12"/>
+      <c r="HI14" s="12"/>
+      <c r="HJ14" s="12"/>
+      <c r="HK14" s="12"/>
+      <c r="HL14" s="12"/>
+      <c r="HM14" s="12"/>
+      <c r="HN14" s="12"/>
+      <c r="HO14" s="12"/>
+      <c r="HP14" s="12"/>
+      <c r="HQ14" s="12"/>
+      <c r="HR14" s="12"/>
+      <c r="HS14" s="12"/>
+      <c r="HT14" s="12"/>
+      <c r="HU14" s="12"/>
+      <c r="HV14" s="12"/>
+      <c r="HW14" s="12"/>
+      <c r="HX14" s="12"/>
+      <c r="HY14" s="12"/>
+      <c r="HZ14" s="12"/>
+      <c r="IA14" s="12"/>
+      <c r="IB14" s="12"/>
+      <c r="IC14" s="12"/>
+      <c r="ID14" s="12"/>
+      <c r="IE14" s="12"/>
+      <c r="IF14" s="12"/>
+      <c r="IG14" s="12"/>
+      <c r="IH14" s="12"/>
+      <c r="II14" s="12"/>
+      <c r="IJ14" s="12"/>
+      <c r="IK14" s="12"/>
+      <c r="IL14" s="12"/>
+      <c r="IM14" s="12"/>
+      <c r="IN14" s="12"/>
+      <c r="IO14" s="12"/>
+      <c r="IP14" s="12"/>
+      <c r="IQ14" s="12"/>
+      <c r="IR14" s="12"/>
+      <c r="IS14" s="12"/>
+      <c r="IT14" s="12"/>
+      <c r="IU14" s="12"/>
+      <c r="IV14" s="12"/>
+    </row>
+    <row r="15" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" ht="19" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>26</v>
-      </c>
+    <row r="16" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" ht="19" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="12"/>
-      <c r="C17" t="s" s="2">
-        <v>27</v>
+    <row r="17" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="19" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s" s="2">
+    <row r="18" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" ht="19" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="12"/>
-      <c r="C19" t="s" s="2">
+    <row r="19" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13" t="s">
         <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" ht="30.75" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="8"/>
+    <row r="20" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" ht="19" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" t="s" s="2">
-        <v>30</v>
+    <row r="21" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="2"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" ht="19" customHeight="1">
-      <c r="A22" t="s" s="2">
+    <row r="22" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" t="s" s="2">
+      <c r="C23" s="6"/>
+      <c r="D23" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" ht="19" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" ht="19" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" t="s" s="2">
-        <v>35</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" ht="19" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" t="s" s="2">
-        <v>36</v>
+    <row r="25" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" ht="19" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>38</v>
+    <row r="26" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-    </row>
-    <row r="27" ht="19" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" t="s" s="2">
-        <v>39</v>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="12"/>
+      <c r="BC26" s="12"/>
+      <c r="BD26" s="12"/>
+      <c r="BE26" s="12"/>
+      <c r="BF26" s="12"/>
+      <c r="BG26" s="12"/>
+      <c r="BH26" s="12"/>
+      <c r="BI26" s="12"/>
+      <c r="BJ26" s="12"/>
+      <c r="BK26" s="12"/>
+      <c r="BL26" s="12"/>
+      <c r="BM26" s="12"/>
+      <c r="BN26" s="12"/>
+      <c r="BO26" s="12"/>
+      <c r="BP26" s="12"/>
+      <c r="BQ26" s="12"/>
+      <c r="BR26" s="12"/>
+      <c r="BS26" s="12"/>
+      <c r="BT26" s="12"/>
+      <c r="BU26" s="12"/>
+      <c r="BV26" s="12"/>
+      <c r="BW26" s="12"/>
+      <c r="BX26" s="12"/>
+      <c r="BY26" s="12"/>
+      <c r="BZ26" s="12"/>
+      <c r="CA26" s="12"/>
+      <c r="CB26" s="12"/>
+      <c r="CC26" s="12"/>
+      <c r="CD26" s="12"/>
+      <c r="CE26" s="12"/>
+      <c r="CF26" s="12"/>
+      <c r="CG26" s="12"/>
+      <c r="CH26" s="12"/>
+      <c r="CI26" s="12"/>
+      <c r="CJ26" s="12"/>
+      <c r="CK26" s="12"/>
+      <c r="CL26" s="12"/>
+      <c r="CM26" s="12"/>
+      <c r="CN26" s="12"/>
+      <c r="CO26" s="12"/>
+      <c r="CP26" s="12"/>
+      <c r="CQ26" s="12"/>
+      <c r="CR26" s="12"/>
+      <c r="CS26" s="12"/>
+      <c r="CT26" s="12"/>
+      <c r="CU26" s="12"/>
+      <c r="CV26" s="12"/>
+      <c r="CW26" s="12"/>
+      <c r="CX26" s="12"/>
+      <c r="CY26" s="12"/>
+      <c r="CZ26" s="12"/>
+      <c r="DA26" s="12"/>
+      <c r="DB26" s="12"/>
+      <c r="DC26" s="12"/>
+      <c r="DD26" s="12"/>
+      <c r="DE26" s="12"/>
+      <c r="DF26" s="12"/>
+      <c r="DG26" s="12"/>
+      <c r="DH26" s="12"/>
+      <c r="DI26" s="12"/>
+      <c r="DJ26" s="12"/>
+      <c r="DK26" s="12"/>
+      <c r="DL26" s="12"/>
+      <c r="DM26" s="12"/>
+      <c r="DN26" s="12"/>
+      <c r="DO26" s="12"/>
+      <c r="DP26" s="12"/>
+      <c r="DQ26" s="12"/>
+      <c r="DR26" s="12"/>
+      <c r="DS26" s="12"/>
+      <c r="DT26" s="12"/>
+      <c r="DU26" s="12"/>
+      <c r="DV26" s="12"/>
+      <c r="DW26" s="12"/>
+      <c r="DX26" s="12"/>
+      <c r="DY26" s="12"/>
+      <c r="DZ26" s="12"/>
+      <c r="EA26" s="12"/>
+      <c r="EB26" s="12"/>
+      <c r="EC26" s="12"/>
+      <c r="ED26" s="12"/>
+      <c r="EE26" s="12"/>
+      <c r="EF26" s="12"/>
+      <c r="EG26" s="12"/>
+      <c r="EH26" s="12"/>
+      <c r="EI26" s="12"/>
+      <c r="EJ26" s="12"/>
+      <c r="EK26" s="12"/>
+      <c r="EL26" s="12"/>
+      <c r="EM26" s="12"/>
+      <c r="EN26" s="12"/>
+      <c r="EO26" s="12"/>
+      <c r="EP26" s="12"/>
+      <c r="EQ26" s="12"/>
+      <c r="ER26" s="12"/>
+      <c r="ES26" s="12"/>
+      <c r="ET26" s="12"/>
+      <c r="EU26" s="12"/>
+      <c r="EV26" s="12"/>
+      <c r="EW26" s="12"/>
+      <c r="EX26" s="12"/>
+      <c r="EY26" s="12"/>
+      <c r="EZ26" s="12"/>
+      <c r="FA26" s="12"/>
+      <c r="FB26" s="12"/>
+      <c r="FC26" s="12"/>
+      <c r="FD26" s="12"/>
+      <c r="FE26" s="12"/>
+      <c r="FF26" s="12"/>
+      <c r="FG26" s="12"/>
+      <c r="FH26" s="12"/>
+      <c r="FI26" s="12"/>
+      <c r="FJ26" s="12"/>
+      <c r="FK26" s="12"/>
+      <c r="FL26" s="12"/>
+      <c r="FM26" s="12"/>
+      <c r="FN26" s="12"/>
+      <c r="FO26" s="12"/>
+      <c r="FP26" s="12"/>
+      <c r="FQ26" s="12"/>
+      <c r="FR26" s="12"/>
+      <c r="FS26" s="12"/>
+      <c r="FT26" s="12"/>
+      <c r="FU26" s="12"/>
+      <c r="FV26" s="12"/>
+      <c r="FW26" s="12"/>
+      <c r="FX26" s="12"/>
+      <c r="FY26" s="12"/>
+      <c r="FZ26" s="12"/>
+      <c r="GA26" s="12"/>
+      <c r="GB26" s="12"/>
+      <c r="GC26" s="12"/>
+      <c r="GD26" s="12"/>
+      <c r="GE26" s="12"/>
+      <c r="GF26" s="12"/>
+      <c r="GG26" s="12"/>
+      <c r="GH26" s="12"/>
+      <c r="GI26" s="12"/>
+      <c r="GJ26" s="12"/>
+      <c r="GK26" s="12"/>
+      <c r="GL26" s="12"/>
+      <c r="GM26" s="12"/>
+      <c r="GN26" s="12"/>
+      <c r="GO26" s="12"/>
+      <c r="GP26" s="12"/>
+      <c r="GQ26" s="12"/>
+      <c r="GR26" s="12"/>
+      <c r="GS26" s="12"/>
+      <c r="GT26" s="12"/>
+      <c r="GU26" s="12"/>
+      <c r="GV26" s="12"/>
+      <c r="GW26" s="12"/>
+      <c r="GX26" s="12"/>
+      <c r="GY26" s="12"/>
+      <c r="GZ26" s="12"/>
+      <c r="HA26" s="12"/>
+      <c r="HB26" s="12"/>
+      <c r="HC26" s="12"/>
+      <c r="HD26" s="12"/>
+      <c r="HE26" s="12"/>
+      <c r="HF26" s="12"/>
+      <c r="HG26" s="12"/>
+      <c r="HH26" s="12"/>
+      <c r="HI26" s="12"/>
+      <c r="HJ26" s="12"/>
+      <c r="HK26" s="12"/>
+      <c r="HL26" s="12"/>
+      <c r="HM26" s="12"/>
+      <c r="HN26" s="12"/>
+      <c r="HO26" s="12"/>
+      <c r="HP26" s="12"/>
+      <c r="HQ26" s="12"/>
+      <c r="HR26" s="12"/>
+      <c r="HS26" s="12"/>
+      <c r="HT26" s="12"/>
+      <c r="HU26" s="12"/>
+      <c r="HV26" s="12"/>
+      <c r="HW26" s="12"/>
+      <c r="HX26" s="12"/>
+      <c r="HY26" s="12"/>
+      <c r="HZ26" s="12"/>
+      <c r="IA26" s="12"/>
+      <c r="IB26" s="12"/>
+      <c r="IC26" s="12"/>
+      <c r="ID26" s="12"/>
+      <c r="IE26" s="12"/>
+      <c r="IF26" s="12"/>
+      <c r="IG26" s="12"/>
+      <c r="IH26" s="12"/>
+      <c r="II26" s="12"/>
+      <c r="IJ26" s="12"/>
+      <c r="IK26" s="12"/>
+      <c r="IL26" s="12"/>
+      <c r="IM26" s="12"/>
+      <c r="IN26" s="12"/>
+      <c r="IO26" s="12"/>
+      <c r="IP26" s="12"/>
+      <c r="IQ26" s="12"/>
+      <c r="IR26" s="12"/>
+      <c r="IS26" s="12"/>
+      <c r="IT26" s="12"/>
+      <c r="IU26" s="12"/>
+      <c r="IV26" s="12"/>
+    </row>
+    <row r="27" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A27" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" ht="19" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" t="s" s="2">
-        <v>40</v>
+    <row r="28" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" ht="19" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" t="s" s="2">
-        <v>41</v>
+    <row r="29" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A29" s="18"/>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" ht="19" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" t="s" s="2">
-        <v>42</v>
+    <row r="30" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A30" s="18"/>
+      <c r="B30" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" ht="19" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" t="s" s="2">
-        <v>43</v>
+    <row r="31" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="B31" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" ht="19" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" t="s" s="2">
-        <v>44</v>
+    <row r="32" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" ht="19" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" t="s" s="2">
-        <v>45</v>
+    <row r="33" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" ht="19" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" t="s" s="2">
+    <row r="34" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A34" s="18"/>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="33.75" customHeight="1">
+      <c r="A36" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="A35" t="s" s="2">
+      <c r="C36" s="6"/>
+      <c r="D36" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="C37" s="6"/>
+      <c r="D37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" t="s" s="2">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A38" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" ht="19" customHeight="1">
-      <c r="A36" s="10"/>
-      <c r="B36" t="s" s="2">
+      <c r="B38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" t="s" s="2">
+      <c r="C38" s="6"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A39" s="19"/>
+      <c r="B39" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" ht="19" customHeight="1">
-      <c r="A37" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" ht="19" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" ht="19" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" ht="19" customHeight="1">
-      <c r="A40" t="s" s="3">
-        <v>56</v>
-      </c>
-      <c r="B40" s="2"/>
+    <row r="40" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A40" s="14"/>
+      <c r="B40" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
+    <row r="41" spans="1:5" ht="18.95" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B16:B17"/>
+  <mergeCells count="9">
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A27:A35"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1909,94 +2595,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="14" customWidth="1"/>
-    <col min="2" max="2" width="8.73438" style="14" customWidth="1"/>
-    <col min="3" max="3" width="8.73438" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="14" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="14" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="14" customWidth="1"/>
+    <col min="1" max="256" width="8.75" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2004,94 +2688,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="16" customWidth="1"/>
-    <col min="2" max="2" width="8.73438" style="16" customWidth="1"/>
-    <col min="3" max="3" width="8.73438" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="16" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="16" customWidth="1"/>
+    <col min="1" max="256" width="8.75" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/to_do_list.xlsx
+++ b/to_do_list.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="事件单" sheetId="1" r:id="rId1"/>
-    <sheet name="行李单" sheetId="2" r:id="rId2"/>
-    <sheet name="代购单" sheetId="3" r:id="rId3"/>
+    <sheet name="事件单" sheetId="1" r:id="rId4"/>
+    <sheet name="行李单" sheetId="2" r:id="rId5"/>
+    <sheet name="代购单" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>事项</t>
   </si>
@@ -48,7 +45,7 @@
     <t>出席人数</t>
   </si>
   <si>
-    <t>双方统计人数</t>
+    <t>双方统计人数，20前</t>
   </si>
   <si>
     <t>婚庆公司</t>
@@ -78,10 +75,22 @@
     <t>出嫁酒店</t>
   </si>
   <si>
+    <t>静静定，是否和婚礼酒店一样紧张</t>
+  </si>
+  <si>
+    <t>跟妆</t>
+  </si>
+  <si>
     <t>静静定</t>
   </si>
   <si>
-    <t>跟妆</t>
+    <t>女服装</t>
+  </si>
+  <si>
+    <t>服装</t>
+  </si>
+  <si>
+    <t>首饰</t>
   </si>
   <si>
     <t>男服装</t>
@@ -93,9 +102,6 @@
     <t>伴娘</t>
   </si>
   <si>
-    <t>服装</t>
-  </si>
-  <si>
     <t>人数</t>
   </si>
   <si>
@@ -105,6 +111,12 @@
     <t>小朋友</t>
   </si>
   <si>
+    <t>婚礼的照片</t>
+  </si>
+  <si>
+    <t>从婚纱照里选</t>
+  </si>
+  <si>
     <t>蜜月</t>
   </si>
   <si>
@@ -117,12 +129,18 @@
     <t>在职证明</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>行李单</t>
   </si>
   <si>
     <t>代购单</t>
   </si>
   <si>
+    <t>申请信用卡外币</t>
+  </si>
+  <si>
     <t>装修</t>
   </si>
   <si>
@@ -159,6 +177,9 @@
     <t>选择摄影楼</t>
   </si>
   <si>
+    <t>1.小南教堂，阳光一点，2长拖尾，3经典中式风格，4长拖尾室内的，5旗袍</t>
+  </si>
+  <si>
     <t>预算</t>
   </si>
   <si>
@@ -180,38 +201,25 @@
     <t>续租房子</t>
   </si>
   <si>
-    <t>申请信用卡外币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在开始调查1.21~1.24定下来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>静静定，是否和婚礼酒店一样紧张</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女服装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首饰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>洗漱用品</t>
+  </si>
+  <si>
+    <t>电子设备</t>
+  </si>
+  <si>
+    <t>证件类</t>
+  </si>
+  <si>
+    <t>衣物类</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -219,17 +227,14 @@
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -246,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -273,6 +278,37 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -282,6 +318,31 @@
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -316,21 +377,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -350,7 +396,9 @@
         <color indexed="8"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -361,184 +409,196 @@
         <color indexed="8"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -664,7 +724,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -673,7 +733,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -682,9 +742,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -756,7 +816,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -764,7 +824,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -783,19 +843,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -813,7 +873,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +899,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -865,7 +925,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -891,7 +951,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -943,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,7 +1029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1021,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,15 +1094,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1057,15 +1111,15 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1084,7 +1138,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1164,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,7 +1190,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1216,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1242,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1268,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,7 +1294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,7 +1320,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,7 +1346,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,15 +1385,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1353,7 +1401,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1372,19 +1420,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1402,7 +1450,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1428,7 +1476,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1454,7 +1502,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1480,7 +1528,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1506,7 +1554,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1532,7 +1580,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1558,7 +1606,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1584,7 +1632,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1610,7 +1658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1623,971 +1671,685 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IV41"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.2891" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1562" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5781" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73438" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73438" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.73438" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.73438" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.73438" style="1" customWidth="1"/>
+    <col min="11" max="256" width="8.73438" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" ht="18.95" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="2" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" ht="18.95" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" ht="18.95" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="2" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" ht="18.95" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" ht="18.95" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="2" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" ht="18.95" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="17" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" ht="18.95" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="2" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" ht="18.95" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="17"/>
+      <c r="C9" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="2" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" ht="18.95" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="2" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" ht="31.5" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" t="s" s="18">
+        <v>20</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" ht="18.95" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" ht="18.95" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s" s="14">
+        <v>24</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" ht="18.95" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="20"/>
+      <c r="C14" t="s" s="14">
+        <v>25</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" ht="18.95" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" ht="18.95" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" ht="18.95" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" ht="18.95" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="24"/>
+      <c r="C18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" ht="18.95" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" ht="18.95" customHeight="1">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24"/>
+      <c r="C20" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" ht="18.95" customHeight="1">
+      <c r="A21" s="26"/>
+      <c r="B21" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" ht="18.95" customHeight="1">
+      <c r="A22" s="26"/>
+      <c r="B22" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" ht="18.95" customHeight="1">
+      <c r="A23" t="s" s="19">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" ht="18.95" customHeight="1">
+      <c r="A24" s="27"/>
+      <c r="B24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" ht="18.95" customHeight="1">
+      <c r="A25" s="27"/>
+      <c r="B25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" ht="18.95" customHeight="1">
+      <c r="A26" s="27"/>
+      <c r="B26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" ht="18.95" customHeight="1">
+      <c r="A27" s="20"/>
+      <c r="B27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" ht="18.95" customHeight="1">
+      <c r="A28" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" ht="18.95" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" ht="18.95" customHeight="1">
+      <c r="A30" s="17"/>
+      <c r="B30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" ht="18.95" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" ht="18.95" customHeight="1">
+      <c r="A32" s="17"/>
+      <c r="B32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" ht="18.95" customHeight="1">
+      <c r="A33" s="17"/>
+      <c r="B33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" ht="18.95" customHeight="1">
+      <c r="A34" s="17"/>
+      <c r="B34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" ht="18.95" customHeight="1">
+      <c r="A35" s="17"/>
+      <c r="B35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" ht="18.95" customHeight="1">
+      <c r="A36" s="17"/>
+      <c r="B36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" ht="81.05" customHeight="1">
+      <c r="A37" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" ht="18.95" customHeight="1">
+      <c r="A38" s="17"/>
+      <c r="B38" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" ht="18.95" customHeight="1">
+      <c r="A39" t="s" s="6">
         <v>57</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="26" t="s">
+      <c r="B39" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" ht="18.95" customHeight="1">
+      <c r="A40" s="28"/>
+      <c r="B40" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" ht="18.95" customHeight="1">
+      <c r="A41" s="24"/>
+      <c r="B41" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
-      <c r="AV14" s="12"/>
-      <c r="AW14" s="12"/>
-      <c r="AX14" s="12"/>
-      <c r="AY14" s="12"/>
-      <c r="AZ14" s="12"/>
-      <c r="BA14" s="12"/>
-      <c r="BB14" s="12"/>
-      <c r="BC14" s="12"/>
-      <c r="BD14" s="12"/>
-      <c r="BE14" s="12"/>
-      <c r="BF14" s="12"/>
-      <c r="BG14" s="12"/>
-      <c r="BH14" s="12"/>
-      <c r="BI14" s="12"/>
-      <c r="BJ14" s="12"/>
-      <c r="BK14" s="12"/>
-      <c r="BL14" s="12"/>
-      <c r="BM14" s="12"/>
-      <c r="BN14" s="12"/>
-      <c r="BO14" s="12"/>
-      <c r="BP14" s="12"/>
-      <c r="BQ14" s="12"/>
-      <c r="BR14" s="12"/>
-      <c r="BS14" s="12"/>
-      <c r="BT14" s="12"/>
-      <c r="BU14" s="12"/>
-      <c r="BV14" s="12"/>
-      <c r="BW14" s="12"/>
-      <c r="BX14" s="12"/>
-      <c r="BY14" s="12"/>
-      <c r="BZ14" s="12"/>
-      <c r="CA14" s="12"/>
-      <c r="CB14" s="12"/>
-      <c r="CC14" s="12"/>
-      <c r="CD14" s="12"/>
-      <c r="CE14" s="12"/>
-      <c r="CF14" s="12"/>
-      <c r="CG14" s="12"/>
-      <c r="CH14" s="12"/>
-      <c r="CI14" s="12"/>
-      <c r="CJ14" s="12"/>
-      <c r="CK14" s="12"/>
-      <c r="CL14" s="12"/>
-      <c r="CM14" s="12"/>
-      <c r="CN14" s="12"/>
-      <c r="CO14" s="12"/>
-      <c r="CP14" s="12"/>
-      <c r="CQ14" s="12"/>
-      <c r="CR14" s="12"/>
-      <c r="CS14" s="12"/>
-      <c r="CT14" s="12"/>
-      <c r="CU14" s="12"/>
-      <c r="CV14" s="12"/>
-      <c r="CW14" s="12"/>
-      <c r="CX14" s="12"/>
-      <c r="CY14" s="12"/>
-      <c r="CZ14" s="12"/>
-      <c r="DA14" s="12"/>
-      <c r="DB14" s="12"/>
-      <c r="DC14" s="12"/>
-      <c r="DD14" s="12"/>
-      <c r="DE14" s="12"/>
-      <c r="DF14" s="12"/>
-      <c r="DG14" s="12"/>
-      <c r="DH14" s="12"/>
-      <c r="DI14" s="12"/>
-      <c r="DJ14" s="12"/>
-      <c r="DK14" s="12"/>
-      <c r="DL14" s="12"/>
-      <c r="DM14" s="12"/>
-      <c r="DN14" s="12"/>
-      <c r="DO14" s="12"/>
-      <c r="DP14" s="12"/>
-      <c r="DQ14" s="12"/>
-      <c r="DR14" s="12"/>
-      <c r="DS14" s="12"/>
-      <c r="DT14" s="12"/>
-      <c r="DU14" s="12"/>
-      <c r="DV14" s="12"/>
-      <c r="DW14" s="12"/>
-      <c r="DX14" s="12"/>
-      <c r="DY14" s="12"/>
-      <c r="DZ14" s="12"/>
-      <c r="EA14" s="12"/>
-      <c r="EB14" s="12"/>
-      <c r="EC14" s="12"/>
-      <c r="ED14" s="12"/>
-      <c r="EE14" s="12"/>
-      <c r="EF14" s="12"/>
-      <c r="EG14" s="12"/>
-      <c r="EH14" s="12"/>
-      <c r="EI14" s="12"/>
-      <c r="EJ14" s="12"/>
-      <c r="EK14" s="12"/>
-      <c r="EL14" s="12"/>
-      <c r="EM14" s="12"/>
-      <c r="EN14" s="12"/>
-      <c r="EO14" s="12"/>
-      <c r="EP14" s="12"/>
-      <c r="EQ14" s="12"/>
-      <c r="ER14" s="12"/>
-      <c r="ES14" s="12"/>
-      <c r="ET14" s="12"/>
-      <c r="EU14" s="12"/>
-      <c r="EV14" s="12"/>
-      <c r="EW14" s="12"/>
-      <c r="EX14" s="12"/>
-      <c r="EY14" s="12"/>
-      <c r="EZ14" s="12"/>
-      <c r="FA14" s="12"/>
-      <c r="FB14" s="12"/>
-      <c r="FC14" s="12"/>
-      <c r="FD14" s="12"/>
-      <c r="FE14" s="12"/>
-      <c r="FF14" s="12"/>
-      <c r="FG14" s="12"/>
-      <c r="FH14" s="12"/>
-      <c r="FI14" s="12"/>
-      <c r="FJ14" s="12"/>
-      <c r="FK14" s="12"/>
-      <c r="FL14" s="12"/>
-      <c r="FM14" s="12"/>
-      <c r="FN14" s="12"/>
-      <c r="FO14" s="12"/>
-      <c r="FP14" s="12"/>
-      <c r="FQ14" s="12"/>
-      <c r="FR14" s="12"/>
-      <c r="FS14" s="12"/>
-      <c r="FT14" s="12"/>
-      <c r="FU14" s="12"/>
-      <c r="FV14" s="12"/>
-      <c r="FW14" s="12"/>
-      <c r="FX14" s="12"/>
-      <c r="FY14" s="12"/>
-      <c r="FZ14" s="12"/>
-      <c r="GA14" s="12"/>
-      <c r="GB14" s="12"/>
-      <c r="GC14" s="12"/>
-      <c r="GD14" s="12"/>
-      <c r="GE14" s="12"/>
-      <c r="GF14" s="12"/>
-      <c r="GG14" s="12"/>
-      <c r="GH14" s="12"/>
-      <c r="GI14" s="12"/>
-      <c r="GJ14" s="12"/>
-      <c r="GK14" s="12"/>
-      <c r="GL14" s="12"/>
-      <c r="GM14" s="12"/>
-      <c r="GN14" s="12"/>
-      <c r="GO14" s="12"/>
-      <c r="GP14" s="12"/>
-      <c r="GQ14" s="12"/>
-      <c r="GR14" s="12"/>
-      <c r="GS14" s="12"/>
-      <c r="GT14" s="12"/>
-      <c r="GU14" s="12"/>
-      <c r="GV14" s="12"/>
-      <c r="GW14" s="12"/>
-      <c r="GX14" s="12"/>
-      <c r="GY14" s="12"/>
-      <c r="GZ14" s="12"/>
-      <c r="HA14" s="12"/>
-      <c r="HB14" s="12"/>
-      <c r="HC14" s="12"/>
-      <c r="HD14" s="12"/>
-      <c r="HE14" s="12"/>
-      <c r="HF14" s="12"/>
-      <c r="HG14" s="12"/>
-      <c r="HH14" s="12"/>
-      <c r="HI14" s="12"/>
-      <c r="HJ14" s="12"/>
-      <c r="HK14" s="12"/>
-      <c r="HL14" s="12"/>
-      <c r="HM14" s="12"/>
-      <c r="HN14" s="12"/>
-      <c r="HO14" s="12"/>
-      <c r="HP14" s="12"/>
-      <c r="HQ14" s="12"/>
-      <c r="HR14" s="12"/>
-      <c r="HS14" s="12"/>
-      <c r="HT14" s="12"/>
-      <c r="HU14" s="12"/>
-      <c r="HV14" s="12"/>
-      <c r="HW14" s="12"/>
-      <c r="HX14" s="12"/>
-      <c r="HY14" s="12"/>
-      <c r="HZ14" s="12"/>
-      <c r="IA14" s="12"/>
-      <c r="IB14" s="12"/>
-      <c r="IC14" s="12"/>
-      <c r="ID14" s="12"/>
-      <c r="IE14" s="12"/>
-      <c r="IF14" s="12"/>
-      <c r="IG14" s="12"/>
-      <c r="IH14" s="12"/>
-      <c r="II14" s="12"/>
-      <c r="IJ14" s="12"/>
-      <c r="IK14" s="12"/>
-      <c r="IL14" s="12"/>
-      <c r="IM14" s="12"/>
-      <c r="IN14" s="12"/>
-      <c r="IO14" s="12"/>
-      <c r="IP14" s="12"/>
-      <c r="IQ14" s="12"/>
-      <c r="IR14" s="12"/>
-      <c r="IS14" s="12"/>
-      <c r="IT14" s="12"/>
-      <c r="IU14" s="12"/>
-      <c r="IV14" s="12"/>
-    </row>
-    <row r="15" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A22" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="12"/>
-      <c r="AN26" s="12"/>
-      <c r="AO26" s="12"/>
-      <c r="AP26" s="12"/>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="12"/>
-      <c r="AS26" s="12"/>
-      <c r="AT26" s="12"/>
-      <c r="AU26" s="12"/>
-      <c r="AV26" s="12"/>
-      <c r="AW26" s="12"/>
-      <c r="AX26" s="12"/>
-      <c r="AY26" s="12"/>
-      <c r="AZ26" s="12"/>
-      <c r="BA26" s="12"/>
-      <c r="BB26" s="12"/>
-      <c r="BC26" s="12"/>
-      <c r="BD26" s="12"/>
-      <c r="BE26" s="12"/>
-      <c r="BF26" s="12"/>
-      <c r="BG26" s="12"/>
-      <c r="BH26" s="12"/>
-      <c r="BI26" s="12"/>
-      <c r="BJ26" s="12"/>
-      <c r="BK26" s="12"/>
-      <c r="BL26" s="12"/>
-      <c r="BM26" s="12"/>
-      <c r="BN26" s="12"/>
-      <c r="BO26" s="12"/>
-      <c r="BP26" s="12"/>
-      <c r="BQ26" s="12"/>
-      <c r="BR26" s="12"/>
-      <c r="BS26" s="12"/>
-      <c r="BT26" s="12"/>
-      <c r="BU26" s="12"/>
-      <c r="BV26" s="12"/>
-      <c r="BW26" s="12"/>
-      <c r="BX26" s="12"/>
-      <c r="BY26" s="12"/>
-      <c r="BZ26" s="12"/>
-      <c r="CA26" s="12"/>
-      <c r="CB26" s="12"/>
-      <c r="CC26" s="12"/>
-      <c r="CD26" s="12"/>
-      <c r="CE26" s="12"/>
-      <c r="CF26" s="12"/>
-      <c r="CG26" s="12"/>
-      <c r="CH26" s="12"/>
-      <c r="CI26" s="12"/>
-      <c r="CJ26" s="12"/>
-      <c r="CK26" s="12"/>
-      <c r="CL26" s="12"/>
-      <c r="CM26" s="12"/>
-      <c r="CN26" s="12"/>
-      <c r="CO26" s="12"/>
-      <c r="CP26" s="12"/>
-      <c r="CQ26" s="12"/>
-      <c r="CR26" s="12"/>
-      <c r="CS26" s="12"/>
-      <c r="CT26" s="12"/>
-      <c r="CU26" s="12"/>
-      <c r="CV26" s="12"/>
-      <c r="CW26" s="12"/>
-      <c r="CX26" s="12"/>
-      <c r="CY26" s="12"/>
-      <c r="CZ26" s="12"/>
-      <c r="DA26" s="12"/>
-      <c r="DB26" s="12"/>
-      <c r="DC26" s="12"/>
-      <c r="DD26" s="12"/>
-      <c r="DE26" s="12"/>
-      <c r="DF26" s="12"/>
-      <c r="DG26" s="12"/>
-      <c r="DH26" s="12"/>
-      <c r="DI26" s="12"/>
-      <c r="DJ26" s="12"/>
-      <c r="DK26" s="12"/>
-      <c r="DL26" s="12"/>
-      <c r="DM26" s="12"/>
-      <c r="DN26" s="12"/>
-      <c r="DO26" s="12"/>
-      <c r="DP26" s="12"/>
-      <c r="DQ26" s="12"/>
-      <c r="DR26" s="12"/>
-      <c r="DS26" s="12"/>
-      <c r="DT26" s="12"/>
-      <c r="DU26" s="12"/>
-      <c r="DV26" s="12"/>
-      <c r="DW26" s="12"/>
-      <c r="DX26" s="12"/>
-      <c r="DY26" s="12"/>
-      <c r="DZ26" s="12"/>
-      <c r="EA26" s="12"/>
-      <c r="EB26" s="12"/>
-      <c r="EC26" s="12"/>
-      <c r="ED26" s="12"/>
-      <c r="EE26" s="12"/>
-      <c r="EF26" s="12"/>
-      <c r="EG26" s="12"/>
-      <c r="EH26" s="12"/>
-      <c r="EI26" s="12"/>
-      <c r="EJ26" s="12"/>
-      <c r="EK26" s="12"/>
-      <c r="EL26" s="12"/>
-      <c r="EM26" s="12"/>
-      <c r="EN26" s="12"/>
-      <c r="EO26" s="12"/>
-      <c r="EP26" s="12"/>
-      <c r="EQ26" s="12"/>
-      <c r="ER26" s="12"/>
-      <c r="ES26" s="12"/>
-      <c r="ET26" s="12"/>
-      <c r="EU26" s="12"/>
-      <c r="EV26" s="12"/>
-      <c r="EW26" s="12"/>
-      <c r="EX26" s="12"/>
-      <c r="EY26" s="12"/>
-      <c r="EZ26" s="12"/>
-      <c r="FA26" s="12"/>
-      <c r="FB26" s="12"/>
-      <c r="FC26" s="12"/>
-      <c r="FD26" s="12"/>
-      <c r="FE26" s="12"/>
-      <c r="FF26" s="12"/>
-      <c r="FG26" s="12"/>
-      <c r="FH26" s="12"/>
-      <c r="FI26" s="12"/>
-      <c r="FJ26" s="12"/>
-      <c r="FK26" s="12"/>
-      <c r="FL26" s="12"/>
-      <c r="FM26" s="12"/>
-      <c r="FN26" s="12"/>
-      <c r="FO26" s="12"/>
-      <c r="FP26" s="12"/>
-      <c r="FQ26" s="12"/>
-      <c r="FR26" s="12"/>
-      <c r="FS26" s="12"/>
-      <c r="FT26" s="12"/>
-      <c r="FU26" s="12"/>
-      <c r="FV26" s="12"/>
-      <c r="FW26" s="12"/>
-      <c r="FX26" s="12"/>
-      <c r="FY26" s="12"/>
-      <c r="FZ26" s="12"/>
-      <c r="GA26" s="12"/>
-      <c r="GB26" s="12"/>
-      <c r="GC26" s="12"/>
-      <c r="GD26" s="12"/>
-      <c r="GE26" s="12"/>
-      <c r="GF26" s="12"/>
-      <c r="GG26" s="12"/>
-      <c r="GH26" s="12"/>
-      <c r="GI26" s="12"/>
-      <c r="GJ26" s="12"/>
-      <c r="GK26" s="12"/>
-      <c r="GL26" s="12"/>
-      <c r="GM26" s="12"/>
-      <c r="GN26" s="12"/>
-      <c r="GO26" s="12"/>
-      <c r="GP26" s="12"/>
-      <c r="GQ26" s="12"/>
-      <c r="GR26" s="12"/>
-      <c r="GS26" s="12"/>
-      <c r="GT26" s="12"/>
-      <c r="GU26" s="12"/>
-      <c r="GV26" s="12"/>
-      <c r="GW26" s="12"/>
-      <c r="GX26" s="12"/>
-      <c r="GY26" s="12"/>
-      <c r="GZ26" s="12"/>
-      <c r="HA26" s="12"/>
-      <c r="HB26" s="12"/>
-      <c r="HC26" s="12"/>
-      <c r="HD26" s="12"/>
-      <c r="HE26" s="12"/>
-      <c r="HF26" s="12"/>
-      <c r="HG26" s="12"/>
-      <c r="HH26" s="12"/>
-      <c r="HI26" s="12"/>
-      <c r="HJ26" s="12"/>
-      <c r="HK26" s="12"/>
-      <c r="HL26" s="12"/>
-      <c r="HM26" s="12"/>
-      <c r="HN26" s="12"/>
-      <c r="HO26" s="12"/>
-      <c r="HP26" s="12"/>
-      <c r="HQ26" s="12"/>
-      <c r="HR26" s="12"/>
-      <c r="HS26" s="12"/>
-      <c r="HT26" s="12"/>
-      <c r="HU26" s="12"/>
-      <c r="HV26" s="12"/>
-      <c r="HW26" s="12"/>
-      <c r="HX26" s="12"/>
-      <c r="HY26" s="12"/>
-      <c r="HZ26" s="12"/>
-      <c r="IA26" s="12"/>
-      <c r="IB26" s="12"/>
-      <c r="IC26" s="12"/>
-      <c r="ID26" s="12"/>
-      <c r="IE26" s="12"/>
-      <c r="IF26" s="12"/>
-      <c r="IG26" s="12"/>
-      <c r="IH26" s="12"/>
-      <c r="II26" s="12"/>
-      <c r="IJ26" s="12"/>
-      <c r="IK26" s="12"/>
-      <c r="IL26" s="12"/>
-      <c r="IM26" s="12"/>
-      <c r="IN26" s="12"/>
-      <c r="IO26" s="12"/>
-      <c r="IP26" s="12"/>
-      <c r="IQ26" s="12"/>
-      <c r="IR26" s="12"/>
-      <c r="IS26" s="12"/>
-      <c r="IT26" s="12"/>
-      <c r="IU26" s="12"/>
-      <c r="IV26" s="12"/>
-    </row>
-    <row r="27" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:256" ht="18.95" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A36" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A38" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="18.95" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" ht="18.95" customHeight="1">
+      <c r="A42" t="s" s="6">
+        <v>61</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A27:A35"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2595,92 +2357,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="8.75" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.73438" style="32" customWidth="1"/>
+    <col min="2" max="2" width="8.73438" style="32" customWidth="1"/>
+    <col min="3" max="3" width="8.73438" style="32" customWidth="1"/>
+    <col min="4" max="4" width="8.73438" style="32" customWidth="1"/>
+    <col min="5" max="5" width="8.73438" style="32" customWidth="1"/>
+    <col min="6" max="256" width="8.73438" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+    <row r="1" ht="15.95" customHeight="1">
+      <c r="A1" t="s" s="33">
+        <v>62</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" ht="15.95" customHeight="1">
+      <c r="A2" t="s" s="33">
+        <v>63</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" ht="15.95" customHeight="1">
+      <c r="A3" t="s" s="33">
+        <v>64</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" ht="15.95" customHeight="1">
+      <c r="A4" t="s" s="33">
+        <v>65</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" ht="15.95" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" ht="15.95" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" ht="15.95" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" ht="15.95" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" ht="15.95" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" ht="15.95" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2688,92 +2460,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="8.75" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.73438" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.73438" style="35" customWidth="1"/>
+    <col min="3" max="3" width="8.73438" style="35" customWidth="1"/>
+    <col min="4" max="4" width="8.73438" style="35" customWidth="1"/>
+    <col min="5" max="5" width="8.73438" style="35" customWidth="1"/>
+    <col min="6" max="256" width="8.73438" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+    <row r="1" ht="15.95" customHeight="1">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" ht="15.95" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" ht="15.95" customHeight="1">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" ht="15.95" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" ht="15.95" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" ht="15.95" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" ht="15.95" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" ht="15.95" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" ht="15.95" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" ht="15.95" customHeight="1">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/to_do_list.xlsx
+++ b/to_do_list.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>事项</t>
   </si>
@@ -45,18 +45,24 @@
     <t>出席人数</t>
   </si>
   <si>
-    <t>双方统计人数，20前</t>
+    <t>静静家5桌，我2桌，</t>
   </si>
   <si>
     <t>婚庆公司</t>
   </si>
   <si>
+    <t>风格</t>
+  </si>
+  <si>
     <t>摄像</t>
   </si>
   <si>
     <t>摄像机位数量</t>
   </si>
   <si>
+    <t>联系大call</t>
+  </si>
+  <si>
     <t>司仪</t>
   </si>
   <si>
@@ -96,9 +102,21 @@
     <t>男服装</t>
   </si>
   <si>
+    <t>静静为我定做，婚纱照前</t>
+  </si>
+  <si>
     <t>伴手礼</t>
   </si>
   <si>
+    <t>大猫，餐具</t>
+  </si>
+  <si>
+    <t>香烟</t>
+  </si>
+  <si>
+    <t>火柴张老师有</t>
+  </si>
+  <si>
     <t>伴娘</t>
   </si>
   <si>
@@ -138,7 +156,10 @@
     <t>代购单</t>
   </si>
   <si>
-    <t>申请信用卡外币</t>
+    <t>房产证</t>
+  </si>
+  <si>
+    <t>弄完了</t>
   </si>
   <si>
     <t>装修</t>
@@ -168,6 +189,9 @@
     <t>家电</t>
   </si>
   <si>
+    <t>热水器要不要换</t>
+  </si>
+  <si>
     <t>网线</t>
   </si>
   <si>
@@ -177,7 +201,7 @@
     <t>选择摄影楼</t>
   </si>
   <si>
-    <t>1.小南教堂，阳光一点，2长拖尾，3经典中式风格，4长拖尾室内的，5旗袍</t>
+    <t>1.小南教堂，阳光一点，2长拖尾，3经典中式风格，4长拖尾室内的，5旗袍6.询问迎宾照</t>
   </si>
   <si>
     <t>预算</t>
@@ -201,6 +225,21 @@
     <t>续租房子</t>
   </si>
   <si>
+    <t>宝宝问题</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>4，5，6，7如果没成功，就婚礼后</t>
+  </si>
+  <si>
+    <t>体检</t>
+  </si>
+  <si>
+    <t>调理身体</t>
+  </si>
+  <si>
     <t>洗漱用品</t>
   </si>
   <si>
@@ -211,6 +250,12 @@
   </si>
   <si>
     <t>衣物类</t>
+  </si>
+  <si>
+    <t>药品类</t>
+  </si>
+  <si>
+    <t>纸巾类</t>
   </si>
 </sst>
 </file>
@@ -251,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -445,6 +490,43 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -464,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,13 +556,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -492,13 +574,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -510,31 +592,28 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -546,28 +625,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1683,7 +1780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1692,7 +1789,7 @@
     <col min="1" max="1" width="10.2891" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.1562" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5781" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7344" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.73438" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.73438" style="1" customWidth="1"/>
@@ -1777,7 +1874,9 @@
       <c r="B5" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" t="s" s="15">
+        <v>12</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="9"/>
@@ -1789,12 +1888,14 @@
     <row r="6" ht="18.95" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" s="13"/>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="14">
+        <v>15</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
@@ -1805,7 +1906,7 @@
     <row r="7" ht="18.95" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="13"/>
@@ -1819,10 +1920,10 @@
     <row r="8" ht="18.95" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -1836,7 +1937,7 @@
       <c r="A9" s="12"/>
       <c r="B9" s="17"/>
       <c r="C9" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -1850,7 +1951,7 @@
       <c r="A10" s="12"/>
       <c r="B10" s="17"/>
       <c r="C10" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -1863,11 +1964,11 @@
     <row r="11" ht="31.5" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" t="s" s="18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="9"/>
@@ -1879,11 +1980,11 @@
     <row r="12" ht="18.95" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" t="s" s="14">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="9"/>
@@ -1895,10 +1996,10 @@
     <row r="13" ht="18.95" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" t="s" s="19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s" s="14">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -1912,23 +2013,25 @@
       <c r="A14" s="12"/>
       <c r="B14" s="20"/>
       <c r="C14" t="s" s="14">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" ht="18.95" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="D15" t="s" s="14">
+        <v>29</v>
+      </c>
       <c r="E15" s="13"/>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
@@ -1939,10 +2042,12 @@
     <row r="16" ht="18.95" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" t="s" s="14">
+        <v>31</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
@@ -1951,14 +2056,14 @@
       <c r="J16" s="11"/>
     </row>
     <row r="17" ht="18.95" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D17" s="13"/>
+      <c r="A17" s="22"/>
+      <c r="B17" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="14">
+        <v>33</v>
+      </c>
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
@@ -1968,9 +2073,11 @@
     </row>
     <row r="18" ht="18.95" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="24"/>
+      <c r="B18" t="s" s="6">
+        <v>34</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -1982,11 +2089,9 @@
     </row>
     <row r="19" ht="18.95" customHeight="1">
       <c r="A19" s="12"/>
-      <c r="B19" t="s" s="6">
-        <v>30</v>
-      </c>
+      <c r="B19" s="23"/>
       <c r="C19" t="s" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -1997,12 +2102,14 @@
       <c r="J19" s="11"/>
     </row>
     <row r="20" ht="18.95" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="24"/>
-      <c r="C20" t="s" s="6">
-        <v>29</v>
-      </c>
-      <c r="D20" s="15"/>
+      <c r="A20" s="12"/>
+      <c r="B20" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
@@ -2011,12 +2118,12 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" ht="18.95" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="D21" s="21"/>
       <c r="E21" s="13"/>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
@@ -2025,14 +2132,12 @@
       <c r="J21" s="11"/>
     </row>
     <row r="22" ht="18.95" customHeight="1">
-      <c r="A22" s="26"/>
+      <c r="A22" s="25"/>
       <c r="B22" t="s" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" t="s" s="2">
-        <v>33</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
@@ -2041,15 +2146,13 @@
       <c r="J22" s="11"/>
     </row>
     <row r="23" ht="18.95" customHeight="1">
-      <c r="A23" t="s" s="19">
-        <v>34</v>
-      </c>
+      <c r="A23" s="25"/>
       <c r="B23" t="s" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="9"/>
@@ -2059,13 +2162,15 @@
       <c r="J23" s="11"/>
     </row>
     <row r="24" ht="18.95" customHeight="1">
-      <c r="A24" s="27"/>
+      <c r="A24" t="s" s="19">
+        <v>40</v>
+      </c>
       <c r="B24" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" t="s" s="8">
-        <v>38</v>
+      <c r="D24" t="s" s="2">
+        <v>42</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="9"/>
@@ -2075,12 +2180,14 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" ht="18.95" customHeight="1">
-      <c r="A25" s="27"/>
+      <c r="A25" s="26"/>
       <c r="B25" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="D25" t="s" s="8">
+        <v>44</v>
+      </c>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
@@ -2089,9 +2196,9 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" ht="18.95" customHeight="1">
-      <c r="A26" s="27"/>
+      <c r="A26" s="26"/>
       <c r="B26" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -2103,28 +2210,28 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" ht="18.95" customHeight="1">
-      <c r="A27" s="20"/>
+      <c r="A27" s="27"/>
       <c r="B27" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" ht="18.95" customHeight="1">
-      <c r="A28" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="A28" s="25"/>
       <c r="B28" t="s" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="D28" t="s" s="14">
+        <v>48</v>
+      </c>
       <c r="E28" s="13"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
@@ -2133,9 +2240,11 @@
       <c r="J28" s="11"/>
     </row>
     <row r="29" ht="18.95" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" t="s" s="2">
+        <v>49</v>
+      </c>
       <c r="B29" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -2149,7 +2258,7 @@
     <row r="30" ht="18.95" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" t="s" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -2163,7 +2272,7 @@
     <row r="31" ht="18.95" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" t="s" s="2">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -2177,7 +2286,7 @@
     <row r="32" ht="18.95" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" t="s" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -2191,7 +2300,7 @@
     <row r="33" ht="18.95" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" t="s" s="2">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -2205,7 +2314,7 @@
     <row r="34" ht="18.95" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" t="s" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -2219,7 +2328,7 @@
     <row r="35" ht="18.95" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" t="s" s="2">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -2233,10 +2342,10 @@
     <row r="36" ht="18.95" customHeight="1">
       <c r="A36" s="17"/>
       <c r="B36" t="s" s="2">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="15"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
@@ -2244,17 +2353,13 @@
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" ht="81.05" customHeight="1">
-      <c r="A37" t="s" s="2">
-        <v>52</v>
-      </c>
+    <row r="37" ht="18.95" customHeight="1">
+      <c r="A37" s="28"/>
       <c r="B37" t="s" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" t="s" s="2">
-        <v>54</v>
-      </c>
+      <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
@@ -2265,12 +2370,10 @@
     <row r="38" ht="18.95" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" t="s" s="2">
-        <v>56</v>
-      </c>
+      <c r="D38" s="21"/>
       <c r="E38" s="13"/>
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
@@ -2278,15 +2381,17 @@
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" ht="18.95" customHeight="1">
-      <c r="A39" t="s" s="6">
-        <v>57</v>
+    <row r="39" ht="81.05" customHeight="1">
+      <c r="A39" t="s" s="2">
+        <v>60</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="7"/>
+      <c r="D39" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="E39" s="13"/>
       <c r="F39" s="9"/>
       <c r="G39" s="10"/>
@@ -2295,12 +2400,14 @@
       <c r="J39" s="11"/>
     </row>
     <row r="40" ht="18.95" customHeight="1">
-      <c r="A40" s="28"/>
+      <c r="A40" s="17"/>
       <c r="B40" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
+      <c r="D40" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="E40" s="13"/>
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
@@ -2309,12 +2416,14 @@
       <c r="J40" s="11"/>
     </row>
     <row r="41" ht="18.95" customHeight="1">
-      <c r="A41" s="24"/>
+      <c r="A41" t="s" s="6">
+        <v>65</v>
+      </c>
       <c r="B41" t="s" s="2">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="13"/>
       <c r="F41" s="9"/>
       <c r="G41" s="10"/>
@@ -2323,30 +2432,105 @@
       <c r="J41" s="11"/>
     </row>
     <row r="42" ht="18.95" customHeight="1">
-      <c r="A42" t="s" s="6">
-        <v>61</v>
-      </c>
-      <c r="B42" s="2"/>
+      <c r="A42" s="29"/>
+      <c r="B42" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" ht="18.95" customHeight="1">
+      <c r="A43" s="23"/>
+      <c r="B43" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" ht="18.95" customHeight="1">
+      <c r="A44" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
+    </row>
+    <row r="45" ht="18.95" customHeight="1">
+      <c r="A45" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" t="s" s="14">
+        <v>72</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" ht="18.95" customHeight="1">
+      <c r="A46" s="25"/>
+      <c r="B46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" ht="18.95" customHeight="1">
+      <c r="A47" s="36"/>
+      <c r="B47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A2:A22"/>
+  <mergeCells count="10">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="A39:A40"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2364,91 +2548,95 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="32" customWidth="1"/>
-    <col min="2" max="2" width="8.73438" style="32" customWidth="1"/>
-    <col min="3" max="3" width="8.73438" style="32" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="32" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="32" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="32" customWidth="1"/>
+    <col min="1" max="1" width="8.73438" style="37" customWidth="1"/>
+    <col min="2" max="2" width="8.73438" style="37" customWidth="1"/>
+    <col min="3" max="3" width="8.73438" style="37" customWidth="1"/>
+    <col min="4" max="4" width="8.73438" style="37" customWidth="1"/>
+    <col min="5" max="5" width="8.73438" style="37" customWidth="1"/>
+    <col min="6" max="256" width="8.73438" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="33">
-        <v>62</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="A1" t="s" s="38">
+        <v>75</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="33">
-        <v>63</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="A2" t="s" s="38">
+        <v>76</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" t="s" s="33">
-        <v>64</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="A3" t="s" s="38">
+        <v>77</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="33">
-        <v>65</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="A4" t="s" s="38">
+        <v>78</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="A5" t="s" s="38">
+        <v>79</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="A6" t="s" s="38">
+        <v>80</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2467,83 +2655,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="35" customWidth="1"/>
-    <col min="2" max="2" width="8.73438" style="35" customWidth="1"/>
-    <col min="3" max="3" width="8.73438" style="35" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="35" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="35" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="35" customWidth="1"/>
+    <col min="1" max="1" width="8.73438" style="40" customWidth="1"/>
+    <col min="2" max="2" width="8.73438" style="40" customWidth="1"/>
+    <col min="3" max="3" width="8.73438" style="40" customWidth="1"/>
+    <col min="4" max="4" width="8.73438" style="40" customWidth="1"/>
+    <col min="5" max="5" width="8.73438" style="40" customWidth="1"/>
+    <col min="6" max="256" width="8.73438" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/to_do_list.xlsx
+++ b/to_do_list.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="13620"/>
   </bookViews>
   <sheets>
-    <sheet name="事件单" sheetId="1" r:id="rId4"/>
-    <sheet name="行李单" sheetId="2" r:id="rId5"/>
-    <sheet name="代购单" sheetId="3" r:id="rId6"/>
+    <sheet name="事件单" sheetId="1" r:id="rId1"/>
+    <sheet name="行李单" sheetId="2" r:id="rId2"/>
+    <sheet name="代购单" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>事项</t>
   </si>
@@ -81,190 +84,217 @@
     <t>出嫁酒店</t>
   </si>
   <si>
-    <t>静静定，是否和婚礼酒店一样紧张</t>
-  </si>
-  <si>
     <t>跟妆</t>
   </si>
   <si>
+    <t>女服装</t>
+  </si>
+  <si>
+    <t>服装</t>
+  </si>
+  <si>
+    <t>首饰</t>
+  </si>
+  <si>
+    <t>男服装</t>
+  </si>
+  <si>
+    <t>静静为我定做，婚纱照前</t>
+  </si>
+  <si>
+    <t>伴手礼</t>
+  </si>
+  <si>
+    <t>大猫，餐具</t>
+  </si>
+  <si>
+    <t>香烟</t>
+  </si>
+  <si>
+    <t>火柴张老师有</t>
+  </si>
+  <si>
+    <t>伴娘</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>伴郎</t>
+  </si>
+  <si>
+    <t>小朋友</t>
+  </si>
+  <si>
+    <t>婚礼的照片</t>
+  </si>
+  <si>
+    <t>从婚纱照里选</t>
+  </si>
+  <si>
+    <t>蜜月</t>
+  </si>
+  <si>
+    <t>外币兑换</t>
+  </si>
+  <si>
+    <t>2017.1.8取</t>
+  </si>
+  <si>
+    <t>在职证明</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>行李单</t>
+  </si>
+  <si>
+    <t>代购单</t>
+  </si>
+  <si>
+    <t>房产证</t>
+  </si>
+  <si>
+    <t>弄完了</t>
+  </si>
+  <si>
+    <t>装修</t>
+  </si>
+  <si>
+    <t>拆除</t>
+  </si>
+  <si>
+    <t>地热</t>
+  </si>
+  <si>
+    <t>大屋</t>
+  </si>
+  <si>
+    <t>小屋</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>厨房，阳台</t>
+  </si>
+  <si>
+    <t>家具</t>
+  </si>
+  <si>
+    <t>家电</t>
+  </si>
+  <si>
+    <t>热水器要不要换</t>
+  </si>
+  <si>
+    <t>网线</t>
+  </si>
+  <si>
+    <t>结婚照</t>
+  </si>
+  <si>
+    <t>选择摄影楼</t>
+  </si>
+  <si>
+    <t>1.小南教堂，阳光一点，2长拖尾，3经典中式风格，4长拖尾室内的，5旗袍6.询问迎宾照</t>
+  </si>
+  <si>
+    <t>预算</t>
+  </si>
+  <si>
+    <t>5000rmb</t>
+  </si>
+  <si>
+    <t>年前/后拜访</t>
+  </si>
+  <si>
+    <t>静静奶奶家</t>
+  </si>
+  <si>
+    <t>我奶奶家</t>
+  </si>
+  <si>
+    <t>我姥姥家</t>
+  </si>
+  <si>
+    <t>续租房子</t>
+  </si>
+  <si>
+    <t>宝宝问题</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>4，5，6，7如果没成功，就婚礼后</t>
+  </si>
+  <si>
+    <t>体检</t>
+  </si>
+  <si>
+    <t>调理身体</t>
+  </si>
+  <si>
+    <t>洗漱用品</t>
+  </si>
+  <si>
+    <t>电子设备</t>
+  </si>
+  <si>
+    <t>证件类</t>
+  </si>
+  <si>
+    <t>衣物类</t>
+  </si>
+  <si>
+    <t>药品类</t>
+  </si>
+  <si>
+    <t>纸巾类</t>
+  </si>
+  <si>
+    <t>静静定，目前来看不是很着急</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>静静定</t>
-  </si>
-  <si>
-    <t>女服装</t>
-  </si>
-  <si>
-    <t>服装</t>
-  </si>
-  <si>
-    <t>首饰</t>
-  </si>
-  <si>
-    <t>男服装</t>
-  </si>
-  <si>
-    <t>静静为我定做，婚纱照前</t>
-  </si>
-  <si>
-    <t>伴手礼</t>
-  </si>
-  <si>
-    <t>大猫，餐具</t>
-  </si>
-  <si>
-    <t>香烟</t>
-  </si>
-  <si>
-    <t>火柴张老师有</t>
-  </si>
-  <si>
-    <t>伴娘</t>
-  </si>
-  <si>
-    <t>人数</t>
-  </si>
-  <si>
-    <t>伴郎</t>
-  </si>
-  <si>
-    <t>小朋友</t>
-  </si>
-  <si>
-    <t>婚礼的照片</t>
-  </si>
-  <si>
-    <t>从婚纱照里选</t>
-  </si>
-  <si>
-    <t>蜜月</t>
-  </si>
-  <si>
-    <t>外币兑换</t>
-  </si>
-  <si>
-    <t>2017.1.8取</t>
-  </si>
-  <si>
-    <t>在职证明</t>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>行李单</t>
-  </si>
-  <si>
-    <t>代购单</t>
-  </si>
-  <si>
-    <t>房产证</t>
-  </si>
-  <si>
-    <t>弄完了</t>
-  </si>
-  <si>
-    <t>装修</t>
-  </si>
-  <si>
-    <t>拆除</t>
-  </si>
-  <si>
-    <t>地热</t>
-  </si>
-  <si>
-    <t>大屋</t>
-  </si>
-  <si>
-    <t>小屋</t>
-  </si>
-  <si>
-    <t>卫生间</t>
-  </si>
-  <si>
-    <t>厨房，阳台</t>
-  </si>
-  <si>
-    <t>家具</t>
-  </si>
-  <si>
-    <t>家电</t>
-  </si>
-  <si>
-    <t>热水器要不要换</t>
-  </si>
-  <si>
-    <t>网线</t>
-  </si>
-  <si>
-    <t>结婚照</t>
-  </si>
-  <si>
-    <t>选择摄影楼</t>
-  </si>
-  <si>
-    <t>1.小南教堂，阳光一点，2长拖尾，3经典中式风格，4长拖尾室内的，5旗袍6.询问迎宾照</t>
-  </si>
-  <si>
-    <t>预算</t>
-  </si>
-  <si>
-    <t>5000rmb</t>
-  </si>
-  <si>
-    <t>年前/后拜访</t>
-  </si>
-  <si>
-    <t>静静奶奶家</t>
-  </si>
-  <si>
-    <t>我奶奶家</t>
-  </si>
-  <si>
-    <t>我姥姥家</t>
-  </si>
-  <si>
-    <t>续租房子</t>
-  </si>
-  <si>
-    <t>宝宝问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优生优育科，或者妇科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式风格等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-  </si>
-  <si>
-    <t>4，5，6，7如果没成功，就婚礼后</t>
-  </si>
-  <si>
-    <t>体检</t>
-  </si>
-  <si>
-    <t>调理身体</t>
-  </si>
-  <si>
-    <t>洗漱用品</t>
-  </si>
-  <si>
-    <t>电子设备</t>
-  </si>
-  <si>
-    <t>证件类</t>
-  </si>
-  <si>
-    <t>衣物类</t>
-  </si>
-  <si>
-    <t>药品类</t>
-  </si>
-  <si>
-    <t>纸巾类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他杂项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖，气球，红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月份前要拍摄完，9月份前拿到片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计一下需要接送的人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -272,14 +302,17 @@
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -542,160 +575,225 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -821,7 +919,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -830,7 +928,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -839,7 +937,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -913,7 +1011,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -921,7 +1019,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -940,7 +1038,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,7 +1068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1074,7 +1172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1100,7 +1198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1126,7 +1224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1250,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1276,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1191,9 +1289,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1208,7 +1312,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1216,7 +1320,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1235,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +1443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +1469,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +1521,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1547,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,7 +1573,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,9 +1586,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1498,7 +1608,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1517,7 +1627,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1547,7 +1657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1573,7 +1683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1599,7 +1709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1625,7 +1735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1651,7 +1761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1677,7 +1787,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1703,7 +1813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1729,7 +1839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1755,7 +1865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1768,51 +1878,55 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.2891" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1562" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7344" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.73438" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.73438" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.73438" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.73438" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.73438" style="1" customWidth="1"/>
-    <col min="11" max="256" width="8.73438" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3"/>
@@ -1821,15 +1935,15 @@
       <c r="I1" s="4"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" ht="18.95" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="7"/>
@@ -1839,701 +1953,1233 @@
       <c r="I2" s="10"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" ht="18.95" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" t="s" s="2">
+    <row r="3" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" ht="18.95" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" t="s" s="2">
+    <row r="4" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A4" s="42"/>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" t="s" s="14">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" ht="18.95" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" t="s" s="2">
+    <row r="5" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A5" s="42"/>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="15">
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" ht="18.95" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" t="s" s="2">
+    <row r="6" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A6" s="42"/>
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="14">
+      <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" ht="18.95" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" t="s" s="2">
+    <row r="7" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A7" s="42"/>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" ht="18.95" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" t="s" s="2">
+    <row r="8" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A8" s="42"/>
+      <c r="B8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" ht="18.95" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="17"/>
-      <c r="C9" t="s" s="2">
+    <row r="9" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A9" s="42"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" ht="18.95" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="17"/>
-      <c r="C10" t="s" s="2">
+    <row r="10" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="12"/>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" ht="31.5" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" t="s" s="2">
+    <row r="11" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A11" s="42"/>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" t="s" s="18">
-        <v>22</v>
-      </c>
-      <c r="E11" s="13"/>
+      <c r="D11" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" ht="18.95" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" t="s" s="14">
-        <v>24</v>
-      </c>
-      <c r="E12" s="13"/>
+    <row r="12" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A12" s="42"/>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" ht="18.95" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s" s="14">
-        <v>26</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+    <row r="13" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A13" s="42"/>
+      <c r="B13" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" ht="18.95" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="20"/>
-      <c r="C14" t="s" s="14">
-        <v>27</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+    <row r="14" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A14" s="42"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" ht="18.95" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="E15" s="13"/>
+    <row r="15" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A15" s="42"/>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="12"/>
       <c r="F15" s="9"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" ht="18.95" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" t="s" s="14">
-        <v>31</v>
-      </c>
-      <c r="E16" s="13"/>
+    <row r="16" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A16" s="42"/>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="12"/>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" ht="18.95" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" t="s" s="2">
-        <v>32</v>
+    <row r="17" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A17" s="42"/>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" t="s" s="14">
-        <v>33</v>
-      </c>
-      <c r="E17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="12"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" ht="18.95" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+    <row r="18" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A18" s="42"/>
+      <c r="B18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="9"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" ht="18.95" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="23"/>
-      <c r="C19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+    <row r="19" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A19" s="42"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="9"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" ht="18.95" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+    <row r="20" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A20" s="42"/>
+      <c r="B20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" ht="18.95" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="23"/>
-      <c r="C21" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="13"/>
+    <row r="21" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A21" s="42"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" ht="18.95" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="C22" s="13"/>
+    <row r="22" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A22" s="42"/>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="12"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" ht="18.95" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E23" s="13"/>
+    <row r="23" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A23" s="42"/>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="12"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" ht="18.95" customHeight="1">
-      <c r="A24" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="E24" s="13"/>
+    <row r="24" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A24" s="38"/>
+      <c r="B24" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="12"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="11"/>
-    </row>
-    <row r="25" ht="18.95" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="E25" s="13"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="26"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+      <c r="BC24" s="26"/>
+      <c r="BD24" s="26"/>
+      <c r="BE24" s="26"/>
+      <c r="BF24" s="26"/>
+      <c r="BG24" s="26"/>
+      <c r="BH24" s="26"/>
+      <c r="BI24" s="26"/>
+      <c r="BJ24" s="26"/>
+      <c r="BK24" s="26"/>
+      <c r="BL24" s="26"/>
+      <c r="BM24" s="26"/>
+      <c r="BN24" s="26"/>
+      <c r="BO24" s="26"/>
+      <c r="BP24" s="26"/>
+      <c r="BQ24" s="26"/>
+      <c r="BR24" s="26"/>
+      <c r="BS24" s="26"/>
+      <c r="BT24" s="26"/>
+      <c r="BU24" s="26"/>
+      <c r="BV24" s="26"/>
+      <c r="BW24" s="26"/>
+      <c r="BX24" s="26"/>
+      <c r="BY24" s="26"/>
+      <c r="BZ24" s="26"/>
+      <c r="CA24" s="26"/>
+      <c r="CB24" s="26"/>
+      <c r="CC24" s="26"/>
+      <c r="CD24" s="26"/>
+      <c r="CE24" s="26"/>
+      <c r="CF24" s="26"/>
+      <c r="CG24" s="26"/>
+      <c r="CH24" s="26"/>
+      <c r="CI24" s="26"/>
+      <c r="CJ24" s="26"/>
+      <c r="CK24" s="26"/>
+      <c r="CL24" s="26"/>
+      <c r="CM24" s="26"/>
+      <c r="CN24" s="26"/>
+      <c r="CO24" s="26"/>
+      <c r="CP24" s="26"/>
+      <c r="CQ24" s="26"/>
+      <c r="CR24" s="26"/>
+      <c r="CS24" s="26"/>
+      <c r="CT24" s="26"/>
+      <c r="CU24" s="26"/>
+      <c r="CV24" s="26"/>
+      <c r="CW24" s="26"/>
+      <c r="CX24" s="26"/>
+      <c r="CY24" s="26"/>
+      <c r="CZ24" s="26"/>
+      <c r="DA24" s="26"/>
+      <c r="DB24" s="26"/>
+      <c r="DC24" s="26"/>
+      <c r="DD24" s="26"/>
+      <c r="DE24" s="26"/>
+      <c r="DF24" s="26"/>
+      <c r="DG24" s="26"/>
+      <c r="DH24" s="26"/>
+      <c r="DI24" s="26"/>
+      <c r="DJ24" s="26"/>
+      <c r="DK24" s="26"/>
+      <c r="DL24" s="26"/>
+      <c r="DM24" s="26"/>
+      <c r="DN24" s="26"/>
+      <c r="DO24" s="26"/>
+      <c r="DP24" s="26"/>
+      <c r="DQ24" s="26"/>
+      <c r="DR24" s="26"/>
+      <c r="DS24" s="26"/>
+      <c r="DT24" s="26"/>
+      <c r="DU24" s="26"/>
+      <c r="DV24" s="26"/>
+      <c r="DW24" s="26"/>
+      <c r="DX24" s="26"/>
+      <c r="DY24" s="26"/>
+      <c r="DZ24" s="26"/>
+      <c r="EA24" s="26"/>
+      <c r="EB24" s="26"/>
+      <c r="EC24" s="26"/>
+      <c r="ED24" s="26"/>
+      <c r="EE24" s="26"/>
+      <c r="EF24" s="26"/>
+      <c r="EG24" s="26"/>
+      <c r="EH24" s="26"/>
+      <c r="EI24" s="26"/>
+      <c r="EJ24" s="26"/>
+      <c r="EK24" s="26"/>
+      <c r="EL24" s="26"/>
+      <c r="EM24" s="26"/>
+      <c r="EN24" s="26"/>
+      <c r="EO24" s="26"/>
+      <c r="EP24" s="26"/>
+      <c r="EQ24" s="26"/>
+      <c r="ER24" s="26"/>
+      <c r="ES24" s="26"/>
+      <c r="ET24" s="26"/>
+      <c r="EU24" s="26"/>
+      <c r="EV24" s="26"/>
+      <c r="EW24" s="26"/>
+      <c r="EX24" s="26"/>
+      <c r="EY24" s="26"/>
+      <c r="EZ24" s="26"/>
+      <c r="FA24" s="26"/>
+      <c r="FB24" s="26"/>
+      <c r="FC24" s="26"/>
+      <c r="FD24" s="26"/>
+      <c r="FE24" s="26"/>
+      <c r="FF24" s="26"/>
+      <c r="FG24" s="26"/>
+      <c r="FH24" s="26"/>
+      <c r="FI24" s="26"/>
+      <c r="FJ24" s="26"/>
+      <c r="FK24" s="26"/>
+      <c r="FL24" s="26"/>
+      <c r="FM24" s="26"/>
+      <c r="FN24" s="26"/>
+      <c r="FO24" s="26"/>
+      <c r="FP24" s="26"/>
+      <c r="FQ24" s="26"/>
+      <c r="FR24" s="26"/>
+      <c r="FS24" s="26"/>
+      <c r="FT24" s="26"/>
+      <c r="FU24" s="26"/>
+      <c r="FV24" s="26"/>
+      <c r="FW24" s="26"/>
+      <c r="FX24" s="26"/>
+      <c r="FY24" s="26"/>
+      <c r="FZ24" s="26"/>
+      <c r="GA24" s="26"/>
+      <c r="GB24" s="26"/>
+      <c r="GC24" s="26"/>
+      <c r="GD24" s="26"/>
+      <c r="GE24" s="26"/>
+      <c r="GF24" s="26"/>
+      <c r="GG24" s="26"/>
+      <c r="GH24" s="26"/>
+      <c r="GI24" s="26"/>
+      <c r="GJ24" s="26"/>
+      <c r="GK24" s="26"/>
+      <c r="GL24" s="26"/>
+      <c r="GM24" s="26"/>
+      <c r="GN24" s="26"/>
+      <c r="GO24" s="26"/>
+      <c r="GP24" s="26"/>
+      <c r="GQ24" s="26"/>
+      <c r="GR24" s="26"/>
+      <c r="GS24" s="26"/>
+      <c r="GT24" s="26"/>
+      <c r="GU24" s="26"/>
+      <c r="GV24" s="26"/>
+      <c r="GW24" s="26"/>
+      <c r="GX24" s="26"/>
+      <c r="GY24" s="26"/>
+      <c r="GZ24" s="26"/>
+      <c r="HA24" s="26"/>
+      <c r="HB24" s="26"/>
+      <c r="HC24" s="26"/>
+      <c r="HD24" s="26"/>
+      <c r="HE24" s="26"/>
+      <c r="HF24" s="26"/>
+      <c r="HG24" s="26"/>
+      <c r="HH24" s="26"/>
+      <c r="HI24" s="26"/>
+      <c r="HJ24" s="26"/>
+      <c r="HK24" s="26"/>
+      <c r="HL24" s="26"/>
+      <c r="HM24" s="26"/>
+      <c r="HN24" s="26"/>
+      <c r="HO24" s="26"/>
+      <c r="HP24" s="26"/>
+      <c r="HQ24" s="26"/>
+      <c r="HR24" s="26"/>
+      <c r="HS24" s="26"/>
+      <c r="HT24" s="26"/>
+      <c r="HU24" s="26"/>
+      <c r="HV24" s="26"/>
+      <c r="HW24" s="26"/>
+      <c r="HX24" s="26"/>
+      <c r="HY24" s="26"/>
+      <c r="HZ24" s="26"/>
+      <c r="IA24" s="26"/>
+      <c r="IB24" s="26"/>
+      <c r="IC24" s="26"/>
+      <c r="ID24" s="26"/>
+      <c r="IE24" s="26"/>
+      <c r="IF24" s="26"/>
+      <c r="IG24" s="26"/>
+      <c r="IH24" s="26"/>
+      <c r="II24" s="26"/>
+      <c r="IJ24" s="26"/>
+      <c r="IK24" s="26"/>
+      <c r="IL24" s="26"/>
+      <c r="IM24" s="26"/>
+      <c r="IN24" s="26"/>
+      <c r="IO24" s="26"/>
+      <c r="IP24" s="26"/>
+      <c r="IQ24" s="26"/>
+      <c r="IR24" s="26"/>
+      <c r="IS24" s="26"/>
+      <c r="IT24" s="26"/>
+      <c r="IU24" s="26"/>
+      <c r="IV24" s="26"/>
+    </row>
+    <row r="25" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A25" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="12"/>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" ht="18.95" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+    <row r="26" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A26" s="35"/>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="12"/>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" ht="18.95" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+    <row r="27" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A27" s="35"/>
+      <c r="B27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" ht="18.95" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" t="s" s="14">
-        <v>48</v>
-      </c>
-      <c r="E28" s="13"/>
+    <row r="28" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A28" s="36"/>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" ht="18.95" customHeight="1">
-      <c r="A29" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+    <row r="29" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A29" s="30"/>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="12"/>
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" ht="18.95" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+    <row r="30" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A30" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" ht="18.95" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
+    <row r="31" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
       <c r="F31" s="9"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" ht="18.95" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+    <row r="32" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A32" s="32"/>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" ht="18.95" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+    <row r="33" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="9"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" ht="18.95" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+    <row r="34" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" ht="18.95" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+    <row r="35" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" ht="18.95" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+    <row r="36" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" ht="18.95" customHeight="1">
-      <c r="A37" s="28"/>
-      <c r="B37" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+    <row r="37" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A37" s="32"/>
+      <c r="B37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" ht="18.95" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="13"/>
+    <row r="38" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A38" s="37"/>
+      <c r="B38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" ht="81.05" customHeight="1">
-      <c r="A39" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="E39" s="13"/>
+    <row r="39" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A39" s="32"/>
+      <c r="B39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="9"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" ht="18.95" customHeight="1">
-      <c r="A40" s="17"/>
-      <c r="B40" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="E40" s="13"/>
+    <row r="40" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A40" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="12"/>
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
       <c r="J40" s="11"/>
-    </row>
-    <row r="41" ht="18.95" customHeight="1">
-      <c r="A41" t="s" s="6">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="13"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="26"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="26"/>
+      <c r="AR40" s="26"/>
+      <c r="AS40" s="26"/>
+      <c r="AT40" s="26"/>
+      <c r="AU40" s="26"/>
+      <c r="AV40" s="26"/>
+      <c r="AW40" s="26"/>
+      <c r="AX40" s="26"/>
+      <c r="AY40" s="26"/>
+      <c r="AZ40" s="26"/>
+      <c r="BA40" s="26"/>
+      <c r="BB40" s="26"/>
+      <c r="BC40" s="26"/>
+      <c r="BD40" s="26"/>
+      <c r="BE40" s="26"/>
+      <c r="BF40" s="26"/>
+      <c r="BG40" s="26"/>
+      <c r="BH40" s="26"/>
+      <c r="BI40" s="26"/>
+      <c r="BJ40" s="26"/>
+      <c r="BK40" s="26"/>
+      <c r="BL40" s="26"/>
+      <c r="BM40" s="26"/>
+      <c r="BN40" s="26"/>
+      <c r="BO40" s="26"/>
+      <c r="BP40" s="26"/>
+      <c r="BQ40" s="26"/>
+      <c r="BR40" s="26"/>
+      <c r="BS40" s="26"/>
+      <c r="BT40" s="26"/>
+      <c r="BU40" s="26"/>
+      <c r="BV40" s="26"/>
+      <c r="BW40" s="26"/>
+      <c r="BX40" s="26"/>
+      <c r="BY40" s="26"/>
+      <c r="BZ40" s="26"/>
+      <c r="CA40" s="26"/>
+      <c r="CB40" s="26"/>
+      <c r="CC40" s="26"/>
+      <c r="CD40" s="26"/>
+      <c r="CE40" s="26"/>
+      <c r="CF40" s="26"/>
+      <c r="CG40" s="26"/>
+      <c r="CH40" s="26"/>
+      <c r="CI40" s="26"/>
+      <c r="CJ40" s="26"/>
+      <c r="CK40" s="26"/>
+      <c r="CL40" s="26"/>
+      <c r="CM40" s="26"/>
+      <c r="CN40" s="26"/>
+      <c r="CO40" s="26"/>
+      <c r="CP40" s="26"/>
+      <c r="CQ40" s="26"/>
+      <c r="CR40" s="26"/>
+      <c r="CS40" s="26"/>
+      <c r="CT40" s="26"/>
+      <c r="CU40" s="26"/>
+      <c r="CV40" s="26"/>
+      <c r="CW40" s="26"/>
+      <c r="CX40" s="26"/>
+      <c r="CY40" s="26"/>
+      <c r="CZ40" s="26"/>
+      <c r="DA40" s="26"/>
+      <c r="DB40" s="26"/>
+      <c r="DC40" s="26"/>
+      <c r="DD40" s="26"/>
+      <c r="DE40" s="26"/>
+      <c r="DF40" s="26"/>
+      <c r="DG40" s="26"/>
+      <c r="DH40" s="26"/>
+      <c r="DI40" s="26"/>
+      <c r="DJ40" s="26"/>
+      <c r="DK40" s="26"/>
+      <c r="DL40" s="26"/>
+      <c r="DM40" s="26"/>
+      <c r="DN40" s="26"/>
+      <c r="DO40" s="26"/>
+      <c r="DP40" s="26"/>
+      <c r="DQ40" s="26"/>
+      <c r="DR40" s="26"/>
+      <c r="DS40" s="26"/>
+      <c r="DT40" s="26"/>
+      <c r="DU40" s="26"/>
+      <c r="DV40" s="26"/>
+      <c r="DW40" s="26"/>
+      <c r="DX40" s="26"/>
+      <c r="DY40" s="26"/>
+      <c r="DZ40" s="26"/>
+      <c r="EA40" s="26"/>
+      <c r="EB40" s="26"/>
+      <c r="EC40" s="26"/>
+      <c r="ED40" s="26"/>
+      <c r="EE40" s="26"/>
+      <c r="EF40" s="26"/>
+      <c r="EG40" s="26"/>
+      <c r="EH40" s="26"/>
+      <c r="EI40" s="26"/>
+      <c r="EJ40" s="26"/>
+      <c r="EK40" s="26"/>
+      <c r="EL40" s="26"/>
+      <c r="EM40" s="26"/>
+      <c r="EN40" s="26"/>
+      <c r="EO40" s="26"/>
+      <c r="EP40" s="26"/>
+      <c r="EQ40" s="26"/>
+      <c r="ER40" s="26"/>
+      <c r="ES40" s="26"/>
+      <c r="ET40" s="26"/>
+      <c r="EU40" s="26"/>
+      <c r="EV40" s="26"/>
+      <c r="EW40" s="26"/>
+      <c r="EX40" s="26"/>
+      <c r="EY40" s="26"/>
+      <c r="EZ40" s="26"/>
+      <c r="FA40" s="26"/>
+      <c r="FB40" s="26"/>
+      <c r="FC40" s="26"/>
+      <c r="FD40" s="26"/>
+      <c r="FE40" s="26"/>
+      <c r="FF40" s="26"/>
+      <c r="FG40" s="26"/>
+      <c r="FH40" s="26"/>
+      <c r="FI40" s="26"/>
+      <c r="FJ40" s="26"/>
+      <c r="FK40" s="26"/>
+      <c r="FL40" s="26"/>
+      <c r="FM40" s="26"/>
+      <c r="FN40" s="26"/>
+      <c r="FO40" s="26"/>
+      <c r="FP40" s="26"/>
+      <c r="FQ40" s="26"/>
+      <c r="FR40" s="26"/>
+      <c r="FS40" s="26"/>
+      <c r="FT40" s="26"/>
+      <c r="FU40" s="26"/>
+      <c r="FV40" s="26"/>
+      <c r="FW40" s="26"/>
+      <c r="FX40" s="26"/>
+      <c r="FY40" s="26"/>
+      <c r="FZ40" s="26"/>
+      <c r="GA40" s="26"/>
+      <c r="GB40" s="26"/>
+      <c r="GC40" s="26"/>
+      <c r="GD40" s="26"/>
+      <c r="GE40" s="26"/>
+      <c r="GF40" s="26"/>
+      <c r="GG40" s="26"/>
+      <c r="GH40" s="26"/>
+      <c r="GI40" s="26"/>
+      <c r="GJ40" s="26"/>
+      <c r="GK40" s="26"/>
+      <c r="GL40" s="26"/>
+      <c r="GM40" s="26"/>
+      <c r="GN40" s="26"/>
+      <c r="GO40" s="26"/>
+      <c r="GP40" s="26"/>
+      <c r="GQ40" s="26"/>
+      <c r="GR40" s="26"/>
+      <c r="GS40" s="26"/>
+      <c r="GT40" s="26"/>
+      <c r="GU40" s="26"/>
+      <c r="GV40" s="26"/>
+      <c r="GW40" s="26"/>
+      <c r="GX40" s="26"/>
+      <c r="GY40" s="26"/>
+      <c r="GZ40" s="26"/>
+      <c r="HA40" s="26"/>
+      <c r="HB40" s="26"/>
+      <c r="HC40" s="26"/>
+      <c r="HD40" s="26"/>
+      <c r="HE40" s="26"/>
+      <c r="HF40" s="26"/>
+      <c r="HG40" s="26"/>
+      <c r="HH40" s="26"/>
+      <c r="HI40" s="26"/>
+      <c r="HJ40" s="26"/>
+      <c r="HK40" s="26"/>
+      <c r="HL40" s="26"/>
+      <c r="HM40" s="26"/>
+      <c r="HN40" s="26"/>
+      <c r="HO40" s="26"/>
+      <c r="HP40" s="26"/>
+      <c r="HQ40" s="26"/>
+      <c r="HR40" s="26"/>
+      <c r="HS40" s="26"/>
+      <c r="HT40" s="26"/>
+      <c r="HU40" s="26"/>
+      <c r="HV40" s="26"/>
+      <c r="HW40" s="26"/>
+      <c r="HX40" s="26"/>
+      <c r="HY40" s="26"/>
+      <c r="HZ40" s="26"/>
+      <c r="IA40" s="26"/>
+      <c r="IB40" s="26"/>
+      <c r="IC40" s="26"/>
+      <c r="ID40" s="26"/>
+      <c r="IE40" s="26"/>
+      <c r="IF40" s="26"/>
+      <c r="IG40" s="26"/>
+      <c r="IH40" s="26"/>
+      <c r="II40" s="26"/>
+      <c r="IJ40" s="26"/>
+      <c r="IK40" s="26"/>
+      <c r="IL40" s="26"/>
+      <c r="IM40" s="26"/>
+      <c r="IN40" s="26"/>
+      <c r="IO40" s="26"/>
+      <c r="IP40" s="26"/>
+      <c r="IQ40" s="26"/>
+      <c r="IR40" s="26"/>
+      <c r="IS40" s="26"/>
+      <c r="IT40" s="26"/>
+      <c r="IU40" s="26"/>
+      <c r="IV40" s="26"/>
+    </row>
+    <row r="41" spans="1:256" ht="81" customHeight="1">
+      <c r="A41" s="42"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="12"/>
       <c r="F41" s="9"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" ht="18.95" customHeight="1">
-      <c r="A42" s="29"/>
-      <c r="B42" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+    <row r="42" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A42" s="38"/>
+      <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="12"/>
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" ht="18.95" customHeight="1">
-      <c r="A43" s="23"/>
-      <c r="B43" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+    <row r="43" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A43" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="11"/>
     </row>
-    <row r="44" ht="18.95" customHeight="1">
-      <c r="A44" t="s" s="2">
+    <row r="44" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A44" s="33"/>
+      <c r="B44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A45" s="28"/>
+      <c r="B45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="19"/>
+    </row>
+    <row r="47" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A47" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
-    </row>
-    <row r="45" ht="18.95" customHeight="1">
-      <c r="A45" t="s" s="2">
+      <c r="C47" s="12"/>
+      <c r="D47" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="E47" s="12"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="22"/>
+    </row>
+    <row r="48" spans="1:256" ht="18.95" customHeight="1">
+      <c r="A48" s="30"/>
+      <c r="B48" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" t="s" s="14">
+      <c r="C48" s="12"/>
+      <c r="D48" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="22"/>
+    </row>
+    <row r="49" spans="1:10" ht="18.95" customHeight="1">
+      <c r="A49" s="31"/>
+      <c r="B49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="35"/>
-    </row>
-    <row r="46" ht="18.95" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="35"/>
-    </row>
-    <row r="47" ht="18.95" customHeight="1">
-      <c r="A47" s="36"/>
-      <c r="B47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="35"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A25:A29"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A30:A39"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A2:A24"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2541,106 +3187,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="37" customWidth="1"/>
-    <col min="2" max="2" width="8.73438" style="37" customWidth="1"/>
-    <col min="3" max="3" width="8.73438" style="37" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="37" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="37" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="37" customWidth="1"/>
+    <col min="1" max="256" width="8.75" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="38">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A3" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" t="s" s="38">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A4" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" t="s" s="38">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A5" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" t="s" s="38">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A6" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" t="s" s="38">
-        <v>79</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" t="s" s="38">
-        <v>80</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2648,94 +3290,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71429" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.73438" style="40" customWidth="1"/>
-    <col min="2" max="2" width="8.73438" style="40" customWidth="1"/>
-    <col min="3" max="3" width="8.73438" style="40" customWidth="1"/>
-    <col min="4" max="4" width="8.73438" style="40" customWidth="1"/>
-    <col min="5" max="5" width="8.73438" style="40" customWidth="1"/>
-    <col min="6" max="256" width="8.73438" style="40" customWidth="1"/>
+    <col min="1" max="256" width="8.75" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" ht="15.95" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" ht="15.95" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" ht="15.95" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" ht="15.95" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" ht="15.95" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.95" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
